--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rf6e61a52ce6e4f80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3e07c8384fb1448c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3e07c8384fb1448c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R441e61ce9a0842c3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R441e61ce9a0842c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R32871b75e0df463f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R32871b75e0df463f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R730c6011575d4dbf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R730c6011575d4dbf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R18d63089500445e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R18d63089500445e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3a04366ac1924dda"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R3a04366ac1924dda"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R84cc64b7ce1047fe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R84cc64b7ce1047fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Reef594603c0741d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Reef594603c0741d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Ra897b605a7094d50"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Ra897b605a7094d50"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R28482b48376a4dc2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R28482b48376a4dc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rba673db480864f8e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="Rba673db480864f8e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R8a3b8cca20064e0b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/001_HelloWorld.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R8a3b8cca20064e0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HelloWorld" sheetId="1" r:id="R9febb9831c554d70"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
